--- a/QCOM.xlsx
+++ b/QCOM.xlsx
@@ -5,22 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D75F40-D1AB-41D4-B2B3-DF7A968E52BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D90D696-8B96-4023-8650-5CF590002B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-52620" yWindow="315" windowWidth="28260" windowHeight="20070" activeTab="1" xr2:uid="{C60DEAD5-D901-47C9-BE5F-DBB201B3DB69}"/>
+    <workbookView xWindow="11250" yWindow="4360" windowWidth="26500" windowHeight="15380" xr2:uid="{C60DEAD5-D901-47C9-BE5F-DBB201B3DB69}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Model!$T$2:$AD$2</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Model!$T$89:$AD$89</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Model!$T$90:$AD$90</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -325,7 +320,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -367,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -384,11 +379,7 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1837,13 +1828,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5D9689E-0C44-460A-803B-7A419B6A4A56}">
   <dimension ref="K2:M7"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K2" t="s">
         <v>0</v>
       </c>
@@ -1851,7 +1842,7 @@
         <v>169.05</v>
       </c>
     </row>
-    <row r="3" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K3" t="s">
         <v>1</v>
       </c>
@@ -1862,7 +1853,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K4" t="s">
         <v>2</v>
       </c>
@@ -1871,7 +1862,7 @@
         <v>188321.7</v>
       </c>
     </row>
-    <row r="5" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K5" t="s">
         <v>3</v>
       </c>
@@ -1883,7 +1874,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K6" t="s">
         <v>4</v>
       </c>
@@ -1895,7 +1886,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K7" t="s">
         <v>5</v>
       </c>
@@ -1913,22 +1904,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C71CE3-DA72-40B4-9394-C59D0743B1D8}">
   <dimension ref="A1:CA90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="K47" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Y76" sqref="Y76"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="14" width="9.140625" style="3"/>
-    <col min="17" max="19" width="9.140625" style="3"/>
+    <col min="2" max="2" width="15.7265625" customWidth="1"/>
+    <col min="3" max="14" width="9.1796875" style="3"/>
+    <col min="17" max="19" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1939,17 +1930,17 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="10">
         <v>44834</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="8">
         <v>44926</v>
       </c>
       <c r="G2" s="3" t="s">
@@ -1958,16 +1949,16 @@
       <c r="H2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="12">
+      <c r="I2" s="10">
         <v>45199</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="8">
         <v>45291</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2" s="8">
         <v>45382</v>
       </c>
-      <c r="L2" s="10">
+      <c r="L2" s="8">
         <v>45473</v>
       </c>
       <c r="M2" s="3" t="s">
@@ -2019,7 +2010,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>22</v>
       </c>
@@ -2055,7 +2046,7 @@
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
     </row>
-    <row r="4" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
@@ -2091,42 +2082,42 @@
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
     </row>
-    <row r="5" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6">
-        <f>+E3+E4</f>
+        <f t="shared" ref="E5:L5" si="0">+E3+E4</f>
         <v>11396</v>
       </c>
       <c r="F5" s="6">
-        <f>+F3+F4</f>
+        <f t="shared" si="0"/>
         <v>9463</v>
       </c>
       <c r="G5" s="6">
-        <f>+G3+G4</f>
+        <f t="shared" si="0"/>
         <v>9275</v>
       </c>
       <c r="H5" s="6">
-        <f>+H3+H4</f>
+        <f t="shared" si="0"/>
         <v>8451</v>
       </c>
       <c r="I5" s="6">
-        <f>+I3+I4</f>
+        <f t="shared" si="0"/>
         <v>8631</v>
       </c>
       <c r="J5" s="6">
-        <f>+J3+J4</f>
+        <f t="shared" si="0"/>
         <v>9935</v>
       </c>
       <c r="K5" s="6">
-        <f>+K3+K4</f>
+        <f t="shared" si="0"/>
         <v>9389</v>
       </c>
       <c r="L5" s="6">
-        <f>+L3+L4</f>
+        <f t="shared" si="0"/>
         <v>9393</v>
       </c>
       <c r="M5" s="6">
@@ -2148,47 +2139,47 @@
         <v>40015.5</v>
       </c>
       <c r="U5" s="5">
-        <f t="shared" ref="U5:AD5" si="0">+T5*1.05</f>
+        <f t="shared" ref="U5:AD5" si="1">+T5*1.05</f>
         <v>42016.275000000001</v>
       </c>
       <c r="V5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44117.088750000003</v>
       </c>
       <c r="W5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>46322.943187500008</v>
       </c>
       <c r="X5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48639.090346875011</v>
       </c>
       <c r="Y5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>51071.044864218762</v>
       </c>
       <c r="Z5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>53624.597107429705</v>
       </c>
       <c r="AA5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>56305.826962801191</v>
       </c>
       <c r="AB5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59121.118310941252</v>
       </c>
       <c r="AC5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>62077.174226488314</v>
       </c>
       <c r="AD5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65181.032937812735</v>
       </c>
     </row>
-    <row r="6" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
@@ -2223,11 +2214,11 @@
       </c>
       <c r="N6" s="4"/>
       <c r="Q6" s="4"/>
-      <c r="R6" s="9">
+      <c r="R6" s="4">
         <f>SUM(F6:I6)</f>
         <v>15869</v>
       </c>
-      <c r="S6" s="9">
+      <c r="S6" s="4">
         <f>SUM(J6:M6)</f>
         <v>16766</v>
       </c>
@@ -2236,82 +2227,82 @@
         <v>17606.819999999996</v>
       </c>
       <c r="U6" s="2">
-        <f t="shared" ref="U6:AD6" si="1">+U5-U7</f>
+        <f t="shared" ref="U6:AD6" si="2">+U5-U7</f>
         <v>18487.161</v>
       </c>
       <c r="V6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19411.519049999999</v>
       </c>
       <c r="W6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20382.095002500002</v>
       </c>
       <c r="X6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21401.199752625002</v>
       </c>
       <c r="Y6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22471.259740256253</v>
       </c>
       <c r="Z6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23594.822727269067</v>
       </c>
       <c r="AA6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24774.56386363252</v>
       </c>
       <c r="AB6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26013.292056814149</v>
       </c>
       <c r="AC6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27313.956659654854</v>
       </c>
       <c r="AD6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28679.654492637601</v>
       </c>
     </row>
-    <row r="7" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4">
-        <f>+E5-E6</f>
+        <f t="shared" ref="E7:L7" si="3">+E5-E6</f>
         <v>6528</v>
       </c>
       <c r="F7" s="4">
-        <f>+F5-F6</f>
+        <f t="shared" si="3"/>
         <v>5419</v>
       </c>
       <c r="G7" s="4">
-        <f>+G5-G6</f>
+        <f t="shared" si="3"/>
         <v>5122</v>
       </c>
       <c r="H7" s="4">
-        <f>+H5-H6</f>
+        <f t="shared" si="3"/>
         <v>4659</v>
       </c>
       <c r="I7" s="4">
-        <f>+I5-I6</f>
+        <f t="shared" si="3"/>
         <v>4751</v>
       </c>
       <c r="J7" s="4">
-        <f>+J5-J6</f>
+        <f t="shared" si="3"/>
         <v>5623</v>
       </c>
       <c r="K7" s="4">
-        <f>+K5-K6</f>
+        <f t="shared" si="3"/>
         <v>5283</v>
       </c>
       <c r="L7" s="4">
-        <f>+L5-L6</f>
+        <f t="shared" si="3"/>
         <v>5219</v>
       </c>
       <c r="M7" s="4">
@@ -2333,47 +2324,47 @@
         <v>22408.680000000004</v>
       </c>
       <c r="U7" s="2">
-        <f t="shared" ref="U7:AD7" si="2">+U5*0.56</f>
+        <f t="shared" ref="U7:AD7" si="4">+U5*0.56</f>
         <v>23529.114000000001</v>
       </c>
       <c r="V7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>24705.569700000004</v>
       </c>
       <c r="W7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>25940.848185000006</v>
       </c>
       <c r="X7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>27237.89059425001</v>
       </c>
       <c r="Y7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>28599.785123962509</v>
       </c>
       <c r="Z7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>30029.774380160638</v>
       </c>
       <c r="AA7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>31531.263099168671</v>
       </c>
       <c r="AB7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>33107.826254127103</v>
       </c>
       <c r="AC7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>34763.21756683346</v>
       </c>
       <c r="AD7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>36501.378445175134</v>
       </c>
     </row>
-    <row r="8" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
@@ -2409,11 +2400,11 @@
       </c>
       <c r="N8" s="4"/>
       <c r="Q8" s="4"/>
-      <c r="R8" s="9">
+      <c r="R8" s="4">
         <f>SUM(F8:I8)</f>
         <v>8818</v>
       </c>
-      <c r="S8" s="9">
+      <c r="S8" s="4">
         <f>SUM(J8:M8)</f>
         <v>8726</v>
       </c>
@@ -2422,47 +2413,47 @@
         <v>8900.52</v>
       </c>
       <c r="U8" s="2">
-        <f t="shared" ref="U8:AD8" si="3">+T8*1.02</f>
+        <f t="shared" ref="U8:AD8" si="5">+T8*1.02</f>
         <v>9078.5304000000015</v>
       </c>
       <c r="V8" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9260.1010080000015</v>
       </c>
       <c r="W8" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9445.3030281600022</v>
       </c>
       <c r="X8" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9634.2090887232025</v>
       </c>
       <c r="Y8" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9826.8932704976669</v>
       </c>
       <c r="Z8" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10023.43113590762</v>
       </c>
       <c r="AA8" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10223.899758625772</v>
       </c>
       <c r="AB8" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10428.377753798288</v>
       </c>
       <c r="AC8" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10636.945308874254</v>
       </c>
       <c r="AD8" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10849.684215051739</v>
       </c>
     </row>
-    <row r="9" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
@@ -2498,196 +2489,196 @@
       </c>
       <c r="N9" s="4"/>
       <c r="Q9" s="4"/>
-      <c r="R9" s="9">
+      <c r="R9" s="4">
         <f>SUM(F9:I9)</f>
         <v>2483</v>
       </c>
-      <c r="S9" s="9">
+      <c r="S9" s="4">
         <f>SUM(J9:M9)</f>
         <v>2626</v>
       </c>
       <c r="T9" s="2">
-        <f t="shared" ref="T9:AD9" si="4">+S9*1.02</f>
+        <f t="shared" ref="T9:AD9" si="6">+S9*1.02</f>
         <v>2678.52</v>
       </c>
       <c r="U9" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2732.0904</v>
       </c>
       <c r="V9" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2786.7322079999999</v>
       </c>
       <c r="W9" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2842.4668521600001</v>
       </c>
       <c r="X9" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2899.3161892032003</v>
       </c>
       <c r="Y9" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2957.3025129872644</v>
       </c>
       <c r="Z9" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3016.4485632470096</v>
       </c>
       <c r="AA9" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3076.7775345119499</v>
       </c>
       <c r="AB9" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3138.3130852021891</v>
       </c>
       <c r="AC9" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3201.0793469062328</v>
       </c>
       <c r="AD9" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3265.1009338443573</v>
       </c>
     </row>
-    <row r="10" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4">
-        <f>+E8+E9</f>
+        <f t="shared" ref="E10:L10" si="7">+E8+E9</f>
         <v>2862</v>
       </c>
       <c r="F10" s="4">
-        <f>+F8+F9</f>
+        <f t="shared" si="7"/>
         <v>2874</v>
       </c>
       <c r="G10" s="4">
-        <f>+G8+G9</f>
+        <f t="shared" si="7"/>
         <v>2824</v>
       </c>
       <c r="H10" s="4">
-        <f>+H8+H9</f>
+        <f t="shared" si="7"/>
         <v>2840</v>
       </c>
       <c r="I10" s="4">
-        <f>+I8+I9</f>
+        <f t="shared" si="7"/>
         <v>2763</v>
       </c>
       <c r="J10" s="4">
-        <f>+J8+J9</f>
+        <f t="shared" si="7"/>
         <v>2723</v>
       </c>
       <c r="K10" s="4">
-        <f>+K8+K9</f>
+        <f t="shared" si="7"/>
         <v>2943</v>
       </c>
       <c r="L10" s="4">
-        <f>+L8+L9</f>
+        <f t="shared" si="7"/>
         <v>2923</v>
       </c>
       <c r="M10" s="4">
-        <f t="shared" ref="M10" si="5">+M8+M9</f>
+        <f t="shared" ref="M10" si="8">+M8+M9</f>
         <v>2763</v>
       </c>
       <c r="N10" s="4"/>
       <c r="Q10" s="4"/>
-      <c r="R10" s="9">
+      <c r="R10" s="4">
         <f>+R8+R9</f>
         <v>11301</v>
       </c>
-      <c r="S10" s="9">
+      <c r="S10" s="4">
         <f>+S8+S9</f>
         <v>11352</v>
       </c>
-      <c r="T10" s="9">
+      <c r="T10" s="4">
         <f>+T8+T9</f>
         <v>11579.04</v>
       </c>
-      <c r="U10" s="9">
-        <f t="shared" ref="U10:AD10" si="6">+U8+U9</f>
+      <c r="U10" s="4">
+        <f t="shared" ref="U10:AD10" si="9">+U8+U9</f>
         <v>11810.620800000001</v>
       </c>
-      <c r="V10" s="9">
-        <f t="shared" si="6"/>
+      <c r="V10" s="4">
+        <f t="shared" si="9"/>
         <v>12046.833216000001</v>
       </c>
-      <c r="W10" s="9">
-        <f t="shared" si="6"/>
+      <c r="W10" s="4">
+        <f t="shared" si="9"/>
         <v>12287.769880320002</v>
       </c>
-      <c r="X10" s="9">
-        <f t="shared" si="6"/>
+      <c r="X10" s="4">
+        <f t="shared" si="9"/>
         <v>12533.525277926403</v>
       </c>
-      <c r="Y10" s="9">
-        <f t="shared" si="6"/>
+      <c r="Y10" s="4">
+        <f t="shared" si="9"/>
         <v>12784.195783484931</v>
       </c>
-      <c r="Z10" s="9">
-        <f t="shared" si="6"/>
+      <c r="Z10" s="4">
+        <f t="shared" si="9"/>
         <v>13039.87969915463</v>
       </c>
-      <c r="AA10" s="9">
-        <f t="shared" si="6"/>
+      <c r="AA10" s="4">
+        <f t="shared" si="9"/>
         <v>13300.677293137722</v>
       </c>
-      <c r="AB10" s="9">
-        <f t="shared" si="6"/>
+      <c r="AB10" s="4">
+        <f t="shared" si="9"/>
         <v>13566.690839000477</v>
       </c>
-      <c r="AC10" s="9">
-        <f t="shared" si="6"/>
+      <c r="AC10" s="4">
+        <f t="shared" si="9"/>
         <v>13838.024655780486</v>
       </c>
-      <c r="AD10" s="9">
-        <f t="shared" si="6"/>
+      <c r="AD10" s="4">
+        <f t="shared" si="9"/>
         <v>14114.785148896095</v>
       </c>
     </row>
-    <row r="11" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4">
-        <f>+E7-E10</f>
+        <f t="shared" ref="E11:L11" si="10">+E7-E10</f>
         <v>3666</v>
       </c>
       <c r="F11" s="4">
-        <f>+F7-F10</f>
+        <f t="shared" si="10"/>
         <v>2545</v>
       </c>
       <c r="G11" s="4">
-        <f>+G7-G10</f>
+        <f t="shared" si="10"/>
         <v>2298</v>
       </c>
       <c r="H11" s="4">
-        <f>+H7-H10</f>
+        <f t="shared" si="10"/>
         <v>1819</v>
       </c>
       <c r="I11" s="4">
-        <f>+I7-I10</f>
+        <f t="shared" si="10"/>
         <v>1988</v>
       </c>
       <c r="J11" s="4">
-        <f>+J7-J10</f>
+        <f t="shared" si="10"/>
         <v>2900</v>
       </c>
       <c r="K11" s="4">
-        <f>+K7-K10</f>
+        <f t="shared" si="10"/>
         <v>2340</v>
       </c>
       <c r="L11" s="4">
-        <f>+L7-L10</f>
+        <f t="shared" si="10"/>
         <v>2296</v>
       </c>
       <c r="M11" s="4">
-        <f t="shared" ref="M11" si="7">+M7-M10</f>
+        <f t="shared" ref="M11" si="11">+M7-M10</f>
         <v>2497.0800000000008</v>
       </c>
       <c r="N11" s="4"/>
@@ -2705,47 +2696,47 @@
         <v>10829.640000000003</v>
       </c>
       <c r="U11" s="4">
-        <f t="shared" ref="U11:AD11" si="8">+U7-U10</f>
+        <f t="shared" ref="U11:AD11" si="12">+U7-U10</f>
         <v>11718.493200000001</v>
       </c>
       <c r="V11" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>12658.736484000003</v>
       </c>
       <c r="W11" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>13653.078304680004</v>
       </c>
       <c r="X11" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>14704.365316323607</v>
       </c>
       <c r="Y11" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>15815.589340477578</v>
       </c>
       <c r="Z11" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>16989.894681006008</v>
       </c>
       <c r="AA11" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>18230.585806030947</v>
       </c>
       <c r="AB11" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>19541.135415126628</v>
       </c>
       <c r="AC11" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>20925.192911052975</v>
       </c>
       <c r="AD11" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>22386.593296279039</v>
       </c>
     </row>
-    <row r="12" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
@@ -2789,11 +2780,11 @@
       </c>
       <c r="N12" s="4"/>
       <c r="Q12" s="4"/>
-      <c r="R12" s="9">
+      <c r="R12" s="4">
         <f>SUM(F12:I12)</f>
         <v>-430</v>
       </c>
-      <c r="S12" s="9">
+      <c r="S12" s="4">
         <f>SUM(J12:M12)</f>
         <v>186</v>
       </c>
@@ -2802,47 +2793,47 @@
         <v>35.503600000000027</v>
       </c>
       <c r="U12" s="2">
-        <f t="shared" ref="U12:AD12" si="9">+T22*$AG$18</f>
+        <f t="shared" ref="U12:AD12" si="13">+T22*$AG$18</f>
         <v>497.27220300000022</v>
       </c>
       <c r="V12" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1016.4422326275003</v>
       </c>
       <c r="W12" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1597.637328084169</v>
       </c>
       <c r="X12" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2245.7927424766467</v>
       </c>
       <c r="Y12" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2966.1744599756576</v>
       </c>
       <c r="Z12" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3764.3994214949198</v>
       </c>
       <c r="AA12" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4646.4569208512094</v>
       </c>
       <c r="AB12" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>5618.7312367437007</v>
       </c>
       <c r="AC12" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>6688.0255694481893</v>
       </c>
       <c r="AD12" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>7861.587354869489</v>
       </c>
     </row>
-    <row r="13" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>24</v>
       </c>
@@ -2861,7 +2852,7 @@
         <v>2103</v>
       </c>
       <c r="H13" s="4">
-        <f t="shared" ref="H13" si="10">+H11+H12</f>
+        <f t="shared" ref="H13" si="14">+H11+H12</f>
         <v>1749</v>
       </c>
       <c r="I13" s="4">
@@ -2895,51 +2886,51 @@
         <v>10178</v>
       </c>
       <c r="T13" s="4">
-        <f t="shared" ref="T13:AD13" si="11">+T11+T12</f>
+        <f t="shared" ref="T13:AD13" si="15">+T11+T12</f>
         <v>10865.143600000003</v>
       </c>
       <c r="U13" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>12215.765403000001</v>
       </c>
       <c r="V13" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>13675.178716627503</v>
       </c>
       <c r="W13" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>15250.715632764173</v>
       </c>
       <c r="X13" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>16950.158058800254</v>
       </c>
       <c r="Y13" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>18781.763800453235</v>
       </c>
       <c r="Z13" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>20754.294102500928</v>
       </c>
       <c r="AA13" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>22877.042726882159</v>
       </c>
       <c r="AB13" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>25159.866651870328</v>
       </c>
       <c r="AC13" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>27613.218480501164</v>
       </c>
       <c r="AD13" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>30248.180651148527</v>
       </c>
     </row>
-    <row r="14" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>25</v>
       </c>
@@ -2981,11 +2972,11 @@
       </c>
       <c r="N14" s="4"/>
       <c r="Q14" s="4"/>
-      <c r="R14" s="9">
+      <c r="R14" s="4">
         <f>SUM(F14:I14)</f>
         <v>522</v>
       </c>
-      <c r="S14" s="9">
+      <c r="S14" s="4">
         <f>SUM(J14:M14)</f>
         <v>793.00800000000004</v>
       </c>
@@ -2994,62 +2985,62 @@
         <v>1629.7715400000004</v>
       </c>
       <c r="U14" s="2">
-        <f t="shared" ref="U14:AD14" si="12">+U13*0.15</f>
+        <f t="shared" ref="U14:AD14" si="16">+U13*0.15</f>
         <v>1832.36481045</v>
       </c>
       <c r="V14" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2051.2768074941255</v>
       </c>
       <c r="W14" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2287.6073449146261</v>
       </c>
       <c r="X14" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2542.5237088200379</v>
       </c>
       <c r="Y14" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2817.264570067985</v>
       </c>
       <c r="Z14" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>3113.1441153751389</v>
       </c>
       <c r="AA14" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>3431.5564090323237</v>
       </c>
       <c r="AB14" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>3773.9799977805492</v>
       </c>
       <c r="AC14" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>4141.9827720751746</v>
       </c>
       <c r="AD14" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>4537.2270976722784</v>
       </c>
     </row>
-    <row r="15" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4">
-        <f t="shared" ref="E15:M15" si="13">+E13-E14</f>
+        <f t="shared" ref="E15:M15" si="17">+E13-E14</f>
         <v>2923</v>
       </c>
       <c r="F15" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>2273</v>
       </c>
       <c r="G15" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>1910</v>
       </c>
       <c r="H15" s="4">
@@ -3057,23 +3048,23 @@
         <v>1727</v>
       </c>
       <c r="I15" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>1788</v>
       </c>
       <c r="J15" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>2811</v>
       </c>
       <c r="K15" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>2275</v>
       </c>
       <c r="L15" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>2108</v>
       </c>
       <c r="M15" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>2232.0720000000006</v>
       </c>
       <c r="N15" s="4"/>
@@ -3091,86 +3082,86 @@
         <v>9235.3720600000033</v>
       </c>
       <c r="U15" s="4">
-        <f t="shared" ref="U15:AD15" si="14">+U13-U14</f>
+        <f t="shared" ref="U15:AD15" si="18">+U13-U14</f>
         <v>10383.400592550001</v>
       </c>
       <c r="V15" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>11623.901909133378</v>
       </c>
       <c r="W15" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>12963.108287849547</v>
       </c>
       <c r="X15" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>14407.634349980217</v>
       </c>
       <c r="Y15" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>15964.499230385249</v>
       </c>
       <c r="Z15" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>17641.149987125787</v>
       </c>
       <c r="AA15" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>19445.486317849834</v>
       </c>
       <c r="AB15" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>21385.88665408978</v>
       </c>
       <c r="AC15" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>23471.235708425989</v>
       </c>
       <c r="AD15" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>25710.953553476247</v>
       </c>
     </row>
-    <row r="16" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7">
-        <f>E15/E17</f>
+        <f t="shared" ref="E16:M16" si="19">E15/E17</f>
         <v>2.5798764342453664</v>
       </c>
       <c r="F16" s="7">
-        <f>F15/F17</f>
+        <f t="shared" si="19"/>
         <v>2.0097259062776303</v>
       </c>
       <c r="G16" s="7">
-        <f>G15/G17</f>
+        <f t="shared" si="19"/>
         <v>1.7008014247551202</v>
       </c>
       <c r="H16" s="7">
-        <f>H15/H17</f>
+        <f t="shared" si="19"/>
         <v>1.5364768683274022</v>
       </c>
       <c r="I16" s="7">
-        <f>I15/I17</f>
+        <f t="shared" si="19"/>
         <v>1.5893333333333333</v>
       </c>
       <c r="J16" s="7">
-        <f>J15/J17</f>
+        <f t="shared" si="19"/>
         <v>2.4942324755989351</v>
       </c>
       <c r="K16" s="7">
-        <f>K15/K17</f>
+        <f t="shared" si="19"/>
         <v>2.0132743362831858</v>
       </c>
       <c r="L16" s="7">
-        <f>L15/L17</f>
+        <f t="shared" si="19"/>
         <v>1.8589065255731922</v>
       </c>
       <c r="M16" s="7">
-        <f>M15/M17</f>
+        <f t="shared" si="19"/>
         <v>1.9683174603174609</v>
       </c>
       <c r="N16" s="7"/>
@@ -3188,47 +3179,47 @@
         <v>8.1638648044198927</v>
       </c>
       <c r="U16" s="7">
-        <f t="shared" ref="U16:AD16" si="15">U15/U17</f>
+        <f t="shared" ref="U16:AD16" si="20">U15/U17</f>
         <v>9.1786966563977899</v>
       </c>
       <c r="V16" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>10.27527240586376</v>
       </c>
       <c r="W16" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>11.459101248927777</v>
       </c>
       <c r="X16" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>12.736030364623396</v>
       </c>
       <c r="Y16" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>14.112264513047734</v>
       </c>
       <c r="Z16" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>15.594386728950973</v>
       </c>
       <c r="AA16" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>17.18938017047499</v>
       </c>
       <c r="AB16" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>18.904651185935716</v>
       </c>
       <c r="AC16" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>20.748053664906951</v>
       </c>
       <c r="AD16" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>22.727914743404419</v>
       </c>
     </row>
-    <row r="17" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>1</v>
       </c>
@@ -3277,117 +3268,117 @@
         <v>1131.25</v>
       </c>
       <c r="U17" s="2">
-        <f t="shared" ref="U17:AD17" si="16">+T17</f>
+        <f t="shared" ref="U17:AD17" si="21">+T17</f>
         <v>1131.25</v>
       </c>
       <c r="V17" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>1131.25</v>
       </c>
       <c r="W17" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>1131.25</v>
       </c>
       <c r="X17" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>1131.25</v>
       </c>
       <c r="Y17" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>1131.25</v>
       </c>
       <c r="Z17" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>1131.25</v>
       </c>
       <c r="AA17" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>1131.25</v>
       </c>
       <c r="AB17" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>1131.25</v>
       </c>
       <c r="AC17" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>1131.25</v>
       </c>
       <c r="AD17" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>1131.25</v>
       </c>
     </row>
-    <row r="18" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:33" x14ac:dyDescent="0.25">
       <c r="AF18" t="s">
         <v>85</v>
       </c>
-      <c r="AG18" s="13">
+      <c r="AG18" s="11">
         <v>0.05</v>
       </c>
     </row>
-    <row r="19" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="9">
         <f>+I5/E5-1</f>
         <v>-0.24262899262899262</v>
       </c>
-      <c r="J19" s="11">
+      <c r="J19" s="9">
         <f>+J5/F5-1</f>
         <v>4.9878474056852973E-2</v>
       </c>
-      <c r="K19" s="11">
+      <c r="K19" s="9">
         <f>+K5/G5-1</f>
         <v>1.2291105121293722E-2</v>
       </c>
-      <c r="L19" s="11">
+      <c r="L19" s="9">
         <f>+L5/H5-1</f>
         <v>0.11146609868654589</v>
       </c>
-      <c r="M19" s="11">
+      <c r="M19" s="9">
         <f>+M5/I5-1</f>
         <v>8.8286409454292558E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F20" s="11">
-        <f t="shared" ref="F20:J20" si="17">+F7/F5</f>
+      <c r="F20" s="9">
+        <f t="shared" ref="F20:I20" si="22">+F7/F5</f>
         <v>0.57265137905526786</v>
       </c>
-      <c r="G20" s="11">
-        <f t="shared" si="17"/>
+      <c r="G20" s="9">
+        <f t="shared" si="22"/>
         <v>0.55223719676549865</v>
       </c>
-      <c r="H20" s="11">
-        <f t="shared" si="17"/>
+      <c r="H20" s="9">
+        <f t="shared" si="22"/>
         <v>0.55129570465033728</v>
       </c>
-      <c r="I20" s="11">
-        <f t="shared" si="17"/>
+      <c r="I20" s="9">
+        <f t="shared" si="22"/>
         <v>0.55045765264743363</v>
       </c>
-      <c r="J20" s="11">
-        <f t="shared" ref="J20:L20" si="18">+J7/J5</f>
+      <c r="J20" s="9">
+        <f t="shared" ref="J20:K20" si="23">+J7/J5</f>
         <v>0.56597886260694519</v>
       </c>
-      <c r="K20" s="11">
-        <f t="shared" si="18"/>
+      <c r="K20" s="9">
+        <f t="shared" si="23"/>
         <v>0.56267973160080942</v>
       </c>
-      <c r="L20" s="11">
+      <c r="L20" s="9">
         <f>+L7/L5</f>
         <v>0.555626530394975</v>
       </c>
-      <c r="M20" s="11">
+      <c r="M20" s="9">
         <f>+M7/M5</f>
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="22" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>84</v>
       </c>
@@ -3408,47 +3399,47 @@
         <v>9945.4440600000034</v>
       </c>
       <c r="U22" s="2">
-        <f t="shared" ref="U22:AD22" si="19">+T22+U15</f>
+        <f t="shared" ref="U22:AD22" si="24">+T22+U15</f>
         <v>20328.844652550004</v>
       </c>
       <c r="V22" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>31952.74656168338</v>
       </c>
       <c r="W22" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>44915.854849532931</v>
       </c>
       <c r="X22" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>59323.489199513147</v>
       </c>
       <c r="Y22" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>75287.988429898396</v>
       </c>
       <c r="Z22" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>92929.13841702418</v>
       </c>
       <c r="AA22" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>112374.62473487401</v>
       </c>
       <c r="AB22" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>133760.51138896379</v>
       </c>
       <c r="AC22" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>157231.74709738977</v>
       </c>
       <c r="AD22" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>182942.70065086603</v>
       </c>
     </row>
-    <row r="23" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>3</v>
       </c>
@@ -3477,7 +3468,7 @@
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
     </row>
-    <row r="24" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>28</v>
       </c>
@@ -3503,7 +3494,7 @@
       <c r="R24" s="4"/>
       <c r="S24" s="4"/>
     </row>
-    <row r="25" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>29</v>
       </c>
@@ -3529,7 +3520,7 @@
       <c r="R25" s="4"/>
       <c r="S25" s="4"/>
     </row>
-    <row r="26" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>30</v>
       </c>
@@ -3555,7 +3546,7 @@
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
     </row>
-    <row r="27" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>44</v>
       </c>
@@ -3582,33 +3573,33 @@
       <c r="R27" s="4"/>
       <c r="S27" s="4"/>
     </row>
-    <row r="28" spans="2:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="8" t="s">
+    <row r="28" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4">
         <v>3579</v>
       </c>
-      <c r="K28" s="9">
+      <c r="K28" s="4">
         <v>3978</v>
       </c>
-      <c r="L28" s="9">
+      <c r="L28" s="4">
         <v>4420</v>
       </c>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="9"/>
-    </row>
-    <row r="29" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+    </row>
+    <row r="29" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>31</v>
       </c>
@@ -3634,7 +3625,7 @@
       <c r="R29" s="4"/>
       <c r="S29" s="4"/>
     </row>
-    <row r="30" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>32</v>
       </c>
@@ -3663,7 +3654,7 @@
       <c r="R30" s="4"/>
       <c r="S30" s="4"/>
     </row>
-    <row r="31" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>33</v>
       </c>
@@ -3689,7 +3680,7 @@
       <c r="R31" s="4"/>
       <c r="S31" s="4"/>
     </row>
-    <row r="32" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>35</v>
       </c>
@@ -3718,7 +3709,7 @@
       <c r="R32" s="4"/>
       <c r="S32" s="4"/>
     </row>
-    <row r="33" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -3735,7 +3726,7 @@
       <c r="R33" s="4"/>
       <c r="S33" s="4"/>
     </row>
-    <row r="34" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>36</v>
       </c>
@@ -3761,7 +3752,7 @@
       <c r="R34" s="4"/>
       <c r="S34" s="4"/>
     </row>
-    <row r="35" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
         <v>37</v>
       </c>
@@ -3787,7 +3778,7 @@
       <c r="R35" s="4"/>
       <c r="S35" s="4"/>
     </row>
-    <row r="36" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
         <v>38</v>
       </c>
@@ -3816,7 +3807,7 @@
       <c r="R36" s="4"/>
       <c r="S36" s="4"/>
     </row>
-    <row r="37" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>4</v>
       </c>
@@ -3845,7 +3836,7 @@
       <c r="R37" s="4"/>
       <c r="S37" s="4"/>
     </row>
-    <row r="38" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>39</v>
       </c>
@@ -3871,7 +3862,7 @@
       <c r="R38" s="4"/>
       <c r="S38" s="4"/>
     </row>
-    <row r="39" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>44</v>
       </c>
@@ -3898,7 +3889,7 @@
       <c r="R39" s="4"/>
       <c r="S39" s="4"/>
     </row>
-    <row r="40" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>25</v>
       </c>
@@ -3924,7 +3915,7 @@
       <c r="R40" s="4"/>
       <c r="S40" s="4"/>
     </row>
-    <row r="41" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>40</v>
       </c>
@@ -3950,7 +3941,7 @@
       <c r="R41" s="4"/>
       <c r="S41" s="4"/>
     </row>
-    <row r="42" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>41</v>
       </c>
@@ -3976,7 +3967,7 @@
       <c r="R42" s="4"/>
       <c r="S42" s="4"/>
     </row>
-    <row r="43" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
         <v>42</v>
       </c>
@@ -4005,7 +3996,7 @@
       <c r="R43" s="4"/>
       <c r="S43" s="4"/>
     </row>
-    <row r="45" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
         <v>45</v>
       </c>
@@ -4037,7 +4028,7 @@
       <c r="R45" s="4"/>
       <c r="S45" s="4"/>
     </row>
-    <row r="46" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
         <v>46</v>
       </c>
@@ -4067,7 +4058,7 @@
       <c r="R46" s="4"/>
       <c r="S46" s="4"/>
     </row>
-    <row r="47" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
         <v>48</v>
       </c>
@@ -4097,7 +4088,7 @@
       <c r="R47" s="4"/>
       <c r="S47" s="4"/>
     </row>
-    <row r="48" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
         <v>25</v>
       </c>
@@ -4127,7 +4118,7 @@
       <c r="R48" s="4"/>
       <c r="S48" s="4"/>
     </row>
-    <row r="49" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
         <v>49</v>
       </c>
@@ -4157,7 +4148,7 @@
       <c r="R49" s="4"/>
       <c r="S49" s="4"/>
     </row>
-    <row r="50" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
         <v>50</v>
       </c>
@@ -4187,7 +4178,7 @@
       <c r="R50" s="4"/>
       <c r="S50" s="4"/>
     </row>
-    <row r="51" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
         <v>64</v>
       </c>
@@ -4218,7 +4209,7 @@
       <c r="R51" s="4"/>
       <c r="S51" s="4"/>
     </row>
-    <row r="52" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
         <v>51</v>
       </c>
@@ -4248,7 +4239,7 @@
       <c r="R52" s="4"/>
       <c r="S52" s="4"/>
     </row>
-    <row r="53" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
         <v>52</v>
       </c>
@@ -4280,7 +4271,7 @@
       <c r="R53" s="4"/>
       <c r="S53" s="4"/>
     </row>
-    <row r="54" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
         <v>53</v>
       </c>
@@ -4322,7 +4313,7 @@
         <v>13635</v>
       </c>
     </row>
-    <row r="55" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
@@ -4339,7 +4330,7 @@
       <c r="R55" s="4"/>
       <c r="S55" s="4"/>
     </row>
-    <row r="56" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
         <v>47</v>
       </c>
@@ -4379,7 +4370,7 @@
         <v>-1078</v>
       </c>
     </row>
-    <row r="57" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
         <v>54</v>
       </c>
@@ -4411,7 +4402,7 @@
       <c r="R57" s="4"/>
       <c r="S57" s="4"/>
     </row>
-    <row r="58" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
         <v>55</v>
       </c>
@@ -4441,7 +4432,7 @@
       <c r="R58" s="4"/>
       <c r="S58" s="4"/>
     </row>
-    <row r="59" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
         <v>56</v>
       </c>
@@ -4471,7 +4462,7 @@
       <c r="R59" s="4"/>
       <c r="S59" s="4"/>
     </row>
-    <row r="60" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
         <v>51</v>
       </c>
@@ -4502,7 +4493,7 @@
       <c r="R60" s="4"/>
       <c r="S60" s="4"/>
     </row>
-    <row r="61" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
         <v>57</v>
       </c>
@@ -4534,7 +4525,7 @@
       <c r="R61" s="4"/>
       <c r="S61" s="4"/>
     </row>
-    <row r="62" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
@@ -4551,7 +4542,7 @@
       <c r="R62" s="4"/>
       <c r="S62" s="4"/>
     </row>
-    <row r="63" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
         <v>4</v>
       </c>
@@ -4581,7 +4572,7 @@
       <c r="R63" s="4"/>
       <c r="S63" s="4"/>
     </row>
-    <row r="64" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="2" t="s">
         <v>60</v>
       </c>
@@ -4612,7 +4603,7 @@
       <c r="R64" s="4"/>
       <c r="S64" s="4"/>
     </row>
-    <row r="65" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="2" t="s">
         <v>59</v>
       </c>
@@ -4642,7 +4633,7 @@
       <c r="R65" s="4"/>
       <c r="S65" s="4"/>
     </row>
-    <row r="66" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
         <v>58</v>
       </c>
@@ -4672,7 +4663,7 @@
       <c r="R66" s="4"/>
       <c r="S66" s="4"/>
     </row>
-    <row r="67" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="2" t="s">
         <v>51</v>
       </c>
@@ -4702,7 +4693,7 @@
       <c r="R67" s="4"/>
       <c r="S67" s="4"/>
     </row>
-    <row r="68" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="2" t="s">
         <v>63</v>
       </c>
@@ -4734,7 +4725,7 @@
       <c r="R68" s="4"/>
       <c r="S68" s="4"/>
     </row>
-    <row r="69" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
         <v>62</v>
       </c>
@@ -4764,7 +4755,7 @@
       <c r="R69" s="4"/>
       <c r="S69" s="4"/>
     </row>
-    <row r="70" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B70" s="2" t="s">
         <v>61</v>
       </c>
@@ -4796,7 +4787,7 @@
       <c r="R70" s="4"/>
       <c r="S70" s="4"/>
     </row>
-    <row r="72" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B72" s="2" t="s">
         <v>82</v>
       </c>
@@ -4837,47 +4828,47 @@
         <v>9235.3720600000033</v>
       </c>
       <c r="U72" s="2">
-        <f t="shared" ref="U72:AD72" si="20">+U15</f>
+        <f t="shared" ref="U72:AD72" si="25">+U15</f>
         <v>10383.400592550001</v>
       </c>
       <c r="V72" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>11623.901909133378</v>
       </c>
       <c r="W72" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>12963.108287849547</v>
       </c>
       <c r="X72" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>14407.634349980217</v>
       </c>
       <c r="Y72" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>15964.499230385249</v>
       </c>
       <c r="Z72" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>17641.149987125787</v>
       </c>
       <c r="AA72" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>19445.486317849834</v>
       </c>
       <c r="AB72" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>21385.88665408978</v>
       </c>
       <c r="AC72" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>23471.235708425989</v>
       </c>
       <c r="AD72" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>25710.953553476247</v>
       </c>
     </row>
-    <row r="75" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>69</v>
       </c>
@@ -4901,37 +4892,37 @@
         <v>6060</v>
       </c>
       <c r="Y75" s="2">
-        <f t="shared" ref="Y75:AD75" si="21">+X75*1.01</f>
+        <f t="shared" ref="Y75:AD75" si="26">+X75*1.01</f>
         <v>6120.6</v>
       </c>
       <c r="Z75" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>6181.8060000000005</v>
       </c>
       <c r="AA75" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>6243.624060000001</v>
       </c>
       <c r="AB75" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>6306.060300600001</v>
       </c>
       <c r="AC75" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>6369.1209036060009</v>
       </c>
       <c r="AD75" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>6432.812112642061</v>
       </c>
       <c r="AF75" t="s">
         <v>86</v>
       </c>
-      <c r="AG75" s="13">
+      <c r="AG75" s="11">
         <v>-0.01</v>
       </c>
     </row>
-    <row r="76" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>70</v>
       </c>
@@ -4956,7 +4947,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="78" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:33" x14ac:dyDescent="0.25">
       <c r="S78" s="4">
         <f>+S76</f>
         <v>-10670.84</v>
@@ -4982,31 +4973,31 @@
         <v>6060</v>
       </c>
       <c r="Y78" s="2">
-        <f t="shared" ref="Y78:AD78" si="22">+Y75</f>
+        <f t="shared" ref="Y78:AD78" si="27">+Y75</f>
         <v>6120.6</v>
       </c>
       <c r="Z78" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>6181.8060000000005</v>
       </c>
       <c r="AA78" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>6243.624060000001</v>
       </c>
       <c r="AB78" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>6306.060300600001</v>
       </c>
       <c r="AC78" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>6369.1209036060009</v>
       </c>
       <c r="AD78" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>6432.812112642061</v>
       </c>
     </row>
-    <row r="80" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>83</v>
       </c>
@@ -5019,47 +5010,47 @@
         <v>4235.3720600000033</v>
       </c>
       <c r="U80" s="4">
-        <f t="shared" ref="T80:AD80" si="23">+U78+U72</f>
+        <f t="shared" ref="U80:AD80" si="28">+U78+U72</f>
         <v>8383.4005925500005</v>
       </c>
       <c r="V80" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>12623.901909133378</v>
       </c>
       <c r="W80" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>16963.108287849547</v>
       </c>
       <c r="X80" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>20467.634349980217</v>
       </c>
       <c r="Y80" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>22085.099230385247</v>
       </c>
       <c r="Z80" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>23822.955987125788</v>
       </c>
       <c r="AA80" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>25689.110377849836</v>
       </c>
       <c r="AB80" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>27691.946954689782</v>
       </c>
       <c r="AC80" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>29840.356612031988</v>
       </c>
       <c r="AD80" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>32143.765666118306</v>
       </c>
     </row>
-    <row r="81" spans="2:79" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:79" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>87</v>
       </c>
@@ -5080,35 +5071,35 @@
         <v>12623.901909133378</v>
       </c>
       <c r="W81" s="2">
-        <f t="shared" ref="W81:AD81" si="24">+W80</f>
+        <f t="shared" ref="W81:AD81" si="29">+W80</f>
         <v>16963.108287849547</v>
       </c>
       <c r="X81" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>20467.634349980217</v>
       </c>
       <c r="Y81" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>22085.099230385247</v>
       </c>
       <c r="Z81" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>23822.955987125788</v>
       </c>
       <c r="AA81" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>25689.110377849836</v>
       </c>
       <c r="AB81" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>27691.946954689782</v>
       </c>
       <c r="AC81" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>29840.356612031988</v>
       </c>
       <c r="AD81" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>32143.765666118306</v>
       </c>
       <c r="AE81" s="2">
@@ -5116,199 +5107,199 @@
         <v>31822.328009457124</v>
       </c>
       <c r="AF81" s="2">
-        <f t="shared" ref="AF81:CA81" si="25">+AE81*(1+$AG$75)</f>
+        <f t="shared" ref="AF81:CA81" si="30">+AE81*(1+$AG$75)</f>
         <v>31504.104729362552</v>
       </c>
       <c r="AG81" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>31189.063682068925</v>
       </c>
       <c r="AH81" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>30877.173045248237</v>
       </c>
       <c r="AI81" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>30568.401314795756</v>
       </c>
       <c r="AJ81" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>30262.717301647797</v>
       </c>
       <c r="AK81" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>29960.09012863132</v>
       </c>
       <c r="AL81" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>29660.489227345006</v>
       </c>
       <c r="AM81" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>29363.884335071554</v>
       </c>
       <c r="AN81" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>29070.245491720838</v>
       </c>
       <c r="AO81" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>28779.543036803629</v>
       </c>
       <c r="AP81" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>28491.747606435591</v>
       </c>
       <c r="AQ81" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>28206.830130371236</v>
       </c>
       <c r="AR81" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>27924.761829067524</v>
       </c>
       <c r="AS81" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>27645.514210776848</v>
       </c>
       <c r="AT81" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>27369.059068669078</v>
       </c>
       <c r="AU81" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>27095.368477982385</v>
       </c>
       <c r="AV81" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>26824.414793202563</v>
       </c>
       <c r="AW81" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>26556.170645270537</v>
       </c>
       <c r="AX81" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>26290.60893881783</v>
       </c>
       <c r="AY81" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>26027.70284942965</v>
       </c>
       <c r="AZ81" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>25767.425820935354</v>
       </c>
       <c r="BA81" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>25509.751562726</v>
       </c>
       <c r="BB81" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>25254.654047098738</v>
       </c>
       <c r="BC81" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>25002.107506627752</v>
       </c>
       <c r="BD81" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>24752.086431561474</v>
       </c>
       <c r="BE81" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>24504.56556724586</v>
       </c>
       <c r="BF81" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>24259.519911573399</v>
       </c>
       <c r="BG81" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>24016.924712457665</v>
       </c>
       <c r="BH81" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>23776.755465333088</v>
       </c>
       <c r="BI81" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>23538.987910679756</v>
       </c>
       <c r="BJ81" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>23303.598031572958</v>
       </c>
       <c r="BK81" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>23070.562051257228</v>
       </c>
       <c r="BL81" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>22839.856430744654</v>
       </c>
       <c r="BM81" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>22611.457866437206</v>
       </c>
       <c r="BN81" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>22385.343287772834</v>
       </c>
       <c r="BO81" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>22161.489854895106</v>
       </c>
       <c r="BP81" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>21939.874956346153</v>
       </c>
       <c r="BQ81" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>21720.476206782692</v>
       </c>
       <c r="BR81" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>21503.271444714865</v>
       </c>
       <c r="BS81" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>21288.238730267716</v>
       </c>
       <c r="BT81" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>21075.356342965038</v>
       </c>
       <c r="BU81" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>20864.602779535388</v>
       </c>
       <c r="BV81" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>20655.956751740032</v>
       </c>
       <c r="BW81" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>20449.397184222631</v>
       </c>
       <c r="BX81" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>20244.903212380406</v>
       </c>
       <c r="BY81" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>20042.454180256602</v>
       </c>
       <c r="BZ81" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>19842.029638454034</v>
       </c>
       <c r="CA81" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>19643.609342069492</v>
       </c>
     </row>
-    <row r="82" spans="2:79" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:79" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>88</v>
       </c>
@@ -5333,231 +5324,231 @@
         <v>16963.108287849547</v>
       </c>
       <c r="X82" s="2">
-        <f t="shared" ref="X82:AD82" si="26">+X80</f>
+        <f t="shared" ref="X82:AD82" si="31">+X80</f>
         <v>20467.634349980217</v>
       </c>
       <c r="Y82" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>22085.099230385247</v>
       </c>
       <c r="Z82" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>23822.955987125788</v>
       </c>
       <c r="AA82" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>25689.110377849836</v>
       </c>
       <c r="AB82" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>27691.946954689782</v>
       </c>
       <c r="AC82" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>29840.356612031988</v>
       </c>
       <c r="AD82" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>32143.765666118306</v>
       </c>
       <c r="AE82" s="2">
-        <f t="shared" ref="AE82:CA82" si="27">+AD82*(1+$AG$75)</f>
+        <f t="shared" ref="AE82:CA82" si="32">+AD82*(1+$AG$75)</f>
         <v>31822.328009457124</v>
       </c>
       <c r="AF82" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>31504.104729362552</v>
       </c>
       <c r="AG82" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>31189.063682068925</v>
       </c>
       <c r="AH82" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>30877.173045248237</v>
       </c>
       <c r="AI82" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>30568.401314795756</v>
       </c>
       <c r="AJ82" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>30262.717301647797</v>
       </c>
       <c r="AK82" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>29960.09012863132</v>
       </c>
       <c r="AL82" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>29660.489227345006</v>
       </c>
       <c r="AM82" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>29363.884335071554</v>
       </c>
       <c r="AN82" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>29070.245491720838</v>
       </c>
       <c r="AO82" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>28779.543036803629</v>
       </c>
       <c r="AP82" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>28491.747606435591</v>
       </c>
       <c r="AQ82" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>28206.830130371236</v>
       </c>
       <c r="AR82" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>27924.761829067524</v>
       </c>
       <c r="AS82" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>27645.514210776848</v>
       </c>
       <c r="AT82" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>27369.059068669078</v>
       </c>
       <c r="AU82" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>27095.368477982385</v>
       </c>
       <c r="AV82" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>26824.414793202563</v>
       </c>
       <c r="AW82" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>26556.170645270537</v>
       </c>
       <c r="AX82" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>26290.60893881783</v>
       </c>
       <c r="AY82" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>26027.70284942965</v>
       </c>
       <c r="AZ82" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>25767.425820935354</v>
       </c>
       <c r="BA82" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>25509.751562726</v>
       </c>
       <c r="BB82" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>25254.654047098738</v>
       </c>
       <c r="BC82" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>25002.107506627752</v>
       </c>
       <c r="BD82" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>24752.086431561474</v>
       </c>
       <c r="BE82" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>24504.56556724586</v>
       </c>
       <c r="BF82" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>24259.519911573399</v>
       </c>
       <c r="BG82" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>24016.924712457665</v>
       </c>
       <c r="BH82" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>23776.755465333088</v>
       </c>
       <c r="BI82" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>23538.987910679756</v>
       </c>
       <c r="BJ82" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>23303.598031572958</v>
       </c>
       <c r="BK82" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>23070.562051257228</v>
       </c>
       <c r="BL82" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>22839.856430744654</v>
       </c>
       <c r="BM82" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>22611.457866437206</v>
       </c>
       <c r="BN82" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>22385.343287772834</v>
       </c>
       <c r="BO82" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>22161.489854895106</v>
       </c>
       <c r="BP82" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>21939.874956346153</v>
       </c>
       <c r="BQ82" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>21720.476206782692</v>
       </c>
       <c r="BR82" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>21503.271444714865</v>
       </c>
       <c r="BS82" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>21288.238730267716</v>
       </c>
       <c r="BT82" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>21075.356342965038</v>
       </c>
       <c r="BU82" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>20864.602779535388</v>
       </c>
       <c r="BV82" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>20655.956751740032</v>
       </c>
       <c r="BW82" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>20449.397184222631</v>
       </c>
       <c r="BX82" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>20244.903212380406</v>
       </c>
       <c r="BY82" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>20042.454180256602</v>
       </c>
       <c r="BZ82" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>19842.029638454034</v>
       </c>
       <c r="CA82" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>19643.609342069492</v>
       </c>
     </row>
-    <row r="83" spans="2:79" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:79" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>89</v>
       </c>
@@ -5585,27 +5576,27 @@
         <v>-1166.9612916292112</v>
       </c>
       <c r="Z83" s="2">
-        <f t="shared" ref="Z83:AD83" si="28">+Y87*0.06</f>
+        <f t="shared" ref="Z83:AD83" si="33">+Y87*0.06</f>
         <v>158.14466219390349</v>
       </c>
       <c r="AA83" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>1587.5220214214507</v>
       </c>
       <c r="AB83" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>3128.8686440924407</v>
       </c>
       <c r="AC83" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>4790.3854613738276</v>
       </c>
       <c r="AD83" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>6580.8068580957461</v>
       </c>
     </row>
-    <row r="84" spans="2:79" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:79" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>26</v>
       </c>
@@ -5614,51 +5605,51 @@
         <v>4886.16</v>
       </c>
       <c r="T84" s="2">
-        <f>+T82+T83</f>
+        <f t="shared" ref="T84:Y84" si="34">+T82+T83</f>
         <v>5735.3720600000033</v>
       </c>
       <c r="U84" s="2">
-        <f>+U82+U83</f>
+        <f t="shared" si="34"/>
         <v>11786.000592550003</v>
       </c>
       <c r="V84" s="2">
-        <f>+V82+V83</f>
+        <f t="shared" si="34"/>
         <v>19733.661944686377</v>
       </c>
       <c r="W84" s="2">
-        <f>+W82+W83</f>
+        <f t="shared" si="34"/>
         <v>13550.30243795055</v>
       </c>
       <c r="X84" s="2">
-        <f>+X82+X83</f>
+        <f t="shared" si="34"/>
         <v>18072.614997352193</v>
       </c>
       <c r="Y84" s="2">
-        <f>+Y82+Y83</f>
+        <f t="shared" si="34"/>
         <v>20918.137938756037</v>
       </c>
       <c r="Z84" s="2">
-        <f t="shared" ref="Z84:AD84" si="29">+Z82+Z83</f>
+        <f t="shared" ref="Z84:AD84" si="35">+Z82+Z83</f>
         <v>23981.100649319691</v>
       </c>
       <c r="AA84" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>27276.632399271286</v>
       </c>
       <c r="AB84" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>30820.815598782221</v>
       </c>
       <c r="AC84" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>34630.742073405818</v>
       </c>
       <c r="AD84" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>38724.572524214054</v>
       </c>
     </row>
-    <row r="85" spans="2:79" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:79" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>1</v>
       </c>
@@ -5674,96 +5665,96 @@
         <v>1762</v>
       </c>
       <c r="V85" s="2">
-        <f t="shared" ref="V85:AD85" si="30">+U85</f>
+        <f t="shared" ref="V85:AD85" si="36">+U85</f>
         <v>1762</v>
       </c>
       <c r="W85" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>1762</v>
       </c>
       <c r="X85" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>1762</v>
       </c>
       <c r="Y85" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>1762</v>
       </c>
       <c r="Z85" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>1762</v>
       </c>
       <c r="AA85" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>1762</v>
       </c>
       <c r="AB85" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>1762</v>
       </c>
       <c r="AC85" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>1762</v>
       </c>
       <c r="AD85" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>1762</v>
       </c>
     </row>
-    <row r="86" spans="2:79" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:79" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>27</v>
       </c>
       <c r="S86" s="7">
-        <f>+S84/S85</f>
+        <f t="shared" ref="S86:AD86" si="37">+S84/S85</f>
         <v>4.3861400359066423</v>
       </c>
       <c r="T86" s="7">
-        <f>+T84/T85</f>
+        <f t="shared" si="37"/>
         <v>3.2550352213393889</v>
       </c>
       <c r="U86" s="7">
-        <f>+U84/U85</f>
+        <f t="shared" si="37"/>
         <v>6.6889901206299678</v>
       </c>
       <c r="V86" s="7">
-        <f>+V84/V85</f>
+        <f t="shared" si="37"/>
         <v>11.199581126382734</v>
       </c>
       <c r="W86" s="7">
-        <f>+W84/W85</f>
+        <f t="shared" si="37"/>
         <v>7.6902965028096197</v>
       </c>
       <c r="X86" s="7">
-        <f>+X84/X85</f>
+        <f t="shared" si="37"/>
         <v>10.256875707918384</v>
       </c>
       <c r="Y86" s="7">
-        <f>+Y84/Y85</f>
+        <f t="shared" si="37"/>
         <v>11.871814948215686</v>
       </c>
       <c r="Z86" s="7">
-        <f>+Z84/Z85</f>
+        <f t="shared" si="37"/>
         <v>13.610159278842049</v>
       </c>
       <c r="AA86" s="7">
-        <f>+AA84/AA85</f>
+        <f t="shared" si="37"/>
         <v>15.480495118769175</v>
       </c>
       <c r="AB86" s="7">
-        <f>+AB84/AB85</f>
+        <f t="shared" si="37"/>
         <v>17.491949829047797</v>
       </c>
       <c r="AC86" s="7">
-        <f>+AC84/AC85</f>
+        <f t="shared" si="37"/>
         <v>19.654223651195128</v>
       </c>
       <c r="AD86" s="7">
-        <f>+AD84/AD85</f>
+        <f t="shared" si="37"/>
         <v>21.977623453015923</v>
       </c>
     </row>
-    <row r="87" spans="2:79" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:79" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>3</v>
       </c>
@@ -5779,139 +5770,139 @@
         <v>-81503.999407449999</v>
       </c>
       <c r="V87" s="2">
-        <f>+U87+V82</f>
+        <f t="shared" ref="V87:AD87" si="38">+U87+V82</f>
         <v>-56880.097498316623</v>
       </c>
       <c r="W87" s="2">
-        <f>+V87+W82</f>
+        <f t="shared" si="38"/>
         <v>-39916.989210467073</v>
       </c>
       <c r="X87" s="2">
-        <f>+W87+X82</f>
+        <f t="shared" si="38"/>
         <v>-19449.354860486856</v>
       </c>
       <c r="Y87" s="2">
-        <f>+X87+Y82</f>
+        <f t="shared" si="38"/>
         <v>2635.7443698983916</v>
       </c>
       <c r="Z87" s="2">
-        <f>+Y87+Z82</f>
+        <f t="shared" si="38"/>
         <v>26458.70035702418</v>
       </c>
       <c r="AA87" s="2">
-        <f>+Z87+AA82</f>
+        <f t="shared" si="38"/>
         <v>52147.810734874016</v>
       </c>
       <c r="AB87" s="2">
-        <f>+AA87+AB82</f>
+        <f t="shared" si="38"/>
         <v>79839.75768956379</v>
       </c>
       <c r="AC87" s="2">
-        <f>+AB87+AC82</f>
+        <f t="shared" si="38"/>
         <v>109680.11430159578</v>
       </c>
       <c r="AD87" s="2">
-        <f>+AC87+AD82</f>
+        <f t="shared" si="38"/>
         <v>141823.87996771408</v>
       </c>
     </row>
-    <row r="89" spans="2:79" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:79" ht="13" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
         <v>90</v>
       </c>
       <c r="S89" s="7"/>
-      <c r="T89" s="14">
+      <c r="T89" s="12">
         <f>+T16</f>
         <v>8.1638648044198927</v>
       </c>
       <c r="U89" s="7">
-        <f t="shared" ref="T89:AD89" si="31">+U16</f>
+        <f t="shared" ref="U89:AD89" si="39">+U16</f>
         <v>9.1786966563977899</v>
       </c>
       <c r="V89" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>10.27527240586376</v>
       </c>
       <c r="W89" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>11.459101248927777</v>
       </c>
       <c r="X89" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>12.736030364623396</v>
       </c>
       <c r="Y89" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>14.112264513047734</v>
       </c>
       <c r="Z89" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>15.594386728950973</v>
       </c>
       <c r="AA89" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>17.18938017047499</v>
       </c>
       <c r="AB89" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>18.904651185935716</v>
       </c>
       <c r="AC89" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>20.748053664906951</v>
       </c>
       <c r="AD89" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>22.727914743404419</v>
       </c>
     </row>
-    <row r="90" spans="2:79" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:79" ht="13" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
         <v>91</v>
       </c>
       <c r="S90" s="7"/>
-      <c r="T90" s="14">
-        <f t="shared" ref="T90:AD90" si="32">+T86</f>
+      <c r="T90" s="12">
+        <f t="shared" ref="T90:AD90" si="40">+T86</f>
         <v>3.2550352213393889</v>
       </c>
       <c r="U90" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v>6.6889901206299678</v>
       </c>
       <c r="V90" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v>11.199581126382734</v>
       </c>
       <c r="W90" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v>7.6902965028096197</v>
       </c>
       <c r="X90" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v>10.256875707918384</v>
       </c>
       <c r="Y90" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v>11.871814948215686</v>
       </c>
       <c r="Z90" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v>13.610159278842049</v>
       </c>
       <c r="AA90" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v>15.480495118769175</v>
       </c>
       <c r="AB90" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v>17.491949829047797</v>
       </c>
       <c r="AC90" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v>19.654223651195128</v>
       </c>
       <c r="AD90" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v>21.977623453015923</v>
       </c>
     </row>
